--- a/result.xlsx
+++ b/result.xlsx
@@ -191,7 +191,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,8 +216,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -226,10 +226,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -260,7 +256,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -287,6 +283,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -299,6 +296,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -315,6 +313,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -336,7 +335,10 @@
         <f aca="false">SUM(F5:F7)/3</f>
         <v>0.866666666666667</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="n">
+        <f aca="false">(E4/D4)*$C$4</f>
+        <v>0.285714285714286</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
@@ -352,9 +354,13 @@
       <c r="E5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="6" t="n">
         <f aca="false">(E5/D5)</f>
         <v>0.6</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <f aca="false">(E5/D5)*$C$4</f>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -371,9 +377,13 @@
       <c r="E6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="6" t="n">
         <f aca="false">(E6/D6)</f>
         <v>1</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <f aca="false">(E6/D6)*$C$4</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -390,9 +400,13 @@
       <c r="E7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="6" t="n">
         <f aca="false">(E7/D7)</f>
         <v>1</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <f aca="false">(E7/D7)*$C$4</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,6 +429,10 @@
         <f aca="false">SUM(F9:F12)/4</f>
         <v>0.95</v>
       </c>
+      <c r="G8" s="6" t="n">
+        <f aca="false">(E8/D8)*$C$8</f>
+        <v>0.525</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
@@ -430,9 +448,13 @@
       <c r="E9" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="6" t="n">
         <f aca="false">(E9/D9)</f>
         <v>0.8</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <f aca="false">(E9/D9)*$C$8</f>
+        <v>0.48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,11 +471,15 @@
       <c r="E10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="6" t="n">
         <f aca="false">(E10/D10)</f>
         <v>1</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="G10" s="6" t="n">
+        <f aca="false">(E10/D10)*$C$8</f>
+        <v>0.6</v>
+      </c>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
@@ -469,9 +495,13 @@
       <c r="E11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="6" t="n">
         <f aca="false">(E11/D11)</f>
         <v>1</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <f aca="false">(E11/D11)*$C$8</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -488,9 +518,13 @@
       <c r="E12" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="6" t="n">
         <f aca="false">(E12/D12)</f>
         <v>1</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <f aca="false">(E12/D12)*$C$8</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -500,14 +534,15 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -529,6 +564,10 @@
         <f aca="false">SUM(F15:F17)/4</f>
         <v>0.2</v>
       </c>
+      <c r="G14" s="6" t="n">
+        <f aca="false">(E14/D14)*$C$14</f>
+        <v>0.4</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
@@ -544,9 +583,13 @@
       <c r="E15" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="10" t="n">
         <f aca="false">(E15/D15)</f>
         <v>0.8</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <f aca="false">(E15/D15)*$C$14</f>
+        <v>0.32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,8 +606,12 @@
       <c r="E16" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="10" t="n">
         <f aca="false">(E16/D16)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <f aca="false">(E16/D16)*$C$14</f>
         <v>0</v>
       </c>
     </row>
@@ -582,8 +629,12 @@
       <c r="E17" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="10" t="n">
         <f aca="false">(E17/D17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <f aca="false">(E17/D17)*$C$14</f>
         <v>0</v>
       </c>
     </row>
@@ -607,6 +658,10 @@
         <f aca="false">SUM(F19:F22)/4</f>
         <v>0.95</v>
       </c>
+      <c r="G18" s="6" t="n">
+        <f aca="false">(E18/D18)*$C$18</f>
+        <v>0.525</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
@@ -622,9 +677,13 @@
       <c r="E19" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="6" t="n">
         <f aca="false">(E19/D19)</f>
         <v>0.8</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <f aca="false">(E19/D19)*$C$18</f>
+        <v>0.48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,9 +700,13 @@
       <c r="E20" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="6" t="n">
         <f aca="false">(E20/D20)</f>
         <v>1</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <f aca="false">(E20/D20)*$C$18</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,9 +723,13 @@
       <c r="E21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="6" t="n">
         <f aca="false">(E21/D21)</f>
         <v>1</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <f aca="false">(E21/D21)*$C$18</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,9 +746,13 @@
       <c r="E22" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="6" t="n">
         <f aca="false">(E22/D22)</f>
         <v>1</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <f aca="false">(E22/D22)*$C$18</f>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
